--- a/SpaOnline/EventStorming/Fabricantes-Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Fabricantes-Event Storming.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Escritorio\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60DB264-F2A0-4575-B692-5B118FF1B6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50BF1CB-50FF-4BEF-AB72-F87C3671A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -681,6 +681,58 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,6 +745,129 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,181 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1338,21 +1338,21 @@
       <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -1372,7 +1372,7 @@
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:M17"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,84 +1428,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38" t="str">
+      <c r="B2" s="97" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Fabricante</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="99" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>objeto de dominio que contiene la informacion del los fabricantes de productos que utilizaria el spa.</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="33" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1515,52 +1515,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="96" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="34" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1573,91 +1573,91 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="47" t="s">
+      <c r="I7" s="72"/>
+      <c r="J7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44" t="s">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="44" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="99" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="48" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="68" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="60" t="s">
@@ -1665,10 +1665,10 @@
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="60"/>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="68" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="60"/>
@@ -1679,193 +1679,204 @@
       <c r="L10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="100" t="s">
+      <c r="M10" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="62" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="72" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69" t="s">
+      <c r="I12" s="57"/>
+      <c r="J12" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="74" t="s">
+      <c r="K12" s="57"/>
+      <c r="L12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="72" t="s">
+      <c r="M12" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="72" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="69" t="s">
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="83" t="s">
+      <c r="M13" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="72" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="84"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="88" t="s">
+      <c r="K15" s="50"/>
+      <c r="L15" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="89" t="s">
+      <c r="M15" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="88" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="93"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="97" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="98" t="s">
+      <c r="M17" s="37" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
@@ -1881,35 +1892,24 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1921,9 +1921,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2071,27 +2074,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2115,9 +2106,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
